--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -52,7 +52,7 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
+    <t>co</t>
   </si>
   <si>
     <t>negative</t>
@@ -61,73 +61,73 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>join</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>well</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>well</t>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>care</t>
@@ -502,7 +502,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7363013698630136</v>
+        <v>0.7636986301369864</v>
       </c>
       <c r="C3">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D3">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4074074074074074</v>
+        <v>0.4497354497354497</v>
       </c>
       <c r="C4">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3624031007751938</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C5">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D5">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +734,13 @@
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -760,37 +760,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0992063492063492</v>
+        <v>0.008061915511125443</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>227</v>
+        <v>3076</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.864406779661017</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -810,13 +810,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -836,13 +836,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8302872062663186</v>
+        <v>0.7963446475195822</v>
       </c>
       <c r="L9">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="M9">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -862,13 +862,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -888,13 +888,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -914,13 +914,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -940,13 +940,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -966,13 +966,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7676056338028169</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L14">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="M14">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -992,13 +992,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7578125</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1018,13 +1018,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1044,13 +1044,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7142857142857143</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1070,13 +1070,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1096,13 +1096,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6744186046511628</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1122,13 +1122,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6323529411764706</v>
+        <v>0.64</v>
       </c>
       <c r="L20">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1148,13 +1148,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5941422594142259</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L21">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1174,13 +1174,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5600000000000001</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1200,13 +1200,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5457627118644067</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L23">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="M23">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>134</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1226,13 +1226,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5425531914893617</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="L24">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="M24">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1252,7 +1252,7 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5285714285714286</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L25">
         <v>37</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1278,13 +1278,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5076923076923077</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1330,13 +1330,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.3205128205128205</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
